--- a/contratos/contratos-11-2014.xlsx
+++ b/contratos/contratos-11-2014.xlsx
@@ -856,13 +856,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -1027,7 +1027,7 @@
     <t>COLOMBO DANIEL ROBERTO</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
+    <t>DODERA. JORGE ABELARDO</t>
   </si>
   <si>
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
@@ -1036,7 +1036,7 @@
     <t>OSCAR SCORZA EQUIPOS Y SERVICIOS S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>CENTINELA S.R.L.</t>
@@ -1321,7 +1321,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>GEO SONIDO</t>
@@ -1504,673 +1504,673 @@
     <t>57</t>
   </si>
   <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>6.090,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>62.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>999,00</t>
-  </si>
-  <si>
-    <t>9.236,00</t>
-  </si>
-  <si>
-    <t>213.621,87</t>
-  </si>
-  <si>
-    <t>1.716,00</t>
-  </si>
-  <si>
-    <t>171,27</t>
-  </si>
-  <si>
-    <t>329.977,29</t>
-  </si>
-  <si>
-    <t>24.852,00</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>12.826,80</t>
-  </si>
-  <si>
-    <t>109.371,60</t>
-  </si>
-  <si>
-    <t>15.300,00</t>
-  </si>
-  <si>
-    <t>2.717,93</t>
-  </si>
-  <si>
-    <t>4.130,40</t>
-  </si>
-  <si>
-    <t>4.128,00</t>
-  </si>
-  <si>
-    <t>2.210,80</t>
-  </si>
-  <si>
-    <t>1.751,00</t>
-  </si>
-  <si>
-    <t>9.254,93</t>
-  </si>
-  <si>
-    <t>3.900,00</t>
-  </si>
-  <si>
-    <t>4.080,00</t>
-  </si>
-  <si>
-    <t>525,00</t>
-  </si>
-  <si>
-    <t>7.091,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>14,55</t>
-  </si>
-  <si>
-    <t>51,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>36.924,00</t>
-  </si>
-  <si>
-    <t>72.133,18</t>
-  </si>
-  <si>
-    <t>16.351,00</t>
-  </si>
-  <si>
-    <t>1.614,70</t>
-  </si>
-  <si>
-    <t>7.613,53</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>28.662,26</t>
-  </si>
-  <si>
-    <t>16.923,72</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>1.598,00</t>
-  </si>
-  <si>
-    <t>2.624,00</t>
-  </si>
-  <si>
-    <t>8.878,00</t>
-  </si>
-  <si>
-    <t>2.926,64</t>
-  </si>
-  <si>
-    <t>3.934,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>37.104,11</t>
-  </si>
-  <si>
-    <t>4.591,75</t>
-  </si>
-  <si>
-    <t>515,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>9.796,90</t>
-  </si>
-  <si>
-    <t>338,21</t>
-  </si>
-  <si>
-    <t>4.200,20</t>
-  </si>
-  <si>
-    <t>10.136,00</t>
-  </si>
-  <si>
-    <t>2.497,74</t>
-  </si>
-  <si>
-    <t>1.780,71</t>
-  </si>
-  <si>
-    <t>132.704,00</t>
-  </si>
-  <si>
-    <t>56,54</t>
-  </si>
-  <si>
-    <t>6.508,50</t>
-  </si>
-  <si>
-    <t>6.299,00</t>
-  </si>
-  <si>
-    <t>19.969,30</t>
-  </si>
-  <si>
-    <t>4.443,40</t>
-  </si>
-  <si>
-    <t>4.784,92</t>
-  </si>
-  <si>
-    <t>986,12</t>
-  </si>
-  <si>
-    <t>16.996,80</t>
-  </si>
-  <si>
-    <t>24.465,00</t>
-  </si>
-  <si>
-    <t>16.800,00</t>
-  </si>
-  <si>
-    <t>361,37</t>
-  </si>
-  <si>
-    <t>1.675,00</t>
-  </si>
-  <si>
-    <t>2.095,00</t>
-  </si>
-  <si>
-    <t>20.400,00</t>
-  </si>
-  <si>
-    <t>1.446,26</t>
-  </si>
-  <si>
-    <t>1.949,67</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>5.195,96</t>
-  </si>
-  <si>
-    <t>1.545,75</t>
-  </si>
-  <si>
-    <t>2.320,00</t>
-  </si>
-  <si>
-    <t>18,00</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>29.600,00</t>
-  </si>
-  <si>
-    <t>8.490,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>3.552,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>33.684,48</t>
-  </si>
-  <si>
-    <t>20.371,94</t>
-  </si>
-  <si>
-    <t>3.010,00</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>784,00</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>2.021,00</t>
-  </si>
-  <si>
-    <t>4.013,00</t>
-  </si>
-  <si>
-    <t>47.385,00</t>
-  </si>
-  <si>
-    <t>815,60</t>
-  </si>
-  <si>
-    <t>572,24</t>
-  </si>
-  <si>
-    <t>4.605,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>355,74</t>
-  </si>
-  <si>
-    <t>345.761,96</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>1.570,00</t>
-  </si>
-  <si>
-    <t>9.167,94</t>
-  </si>
-  <si>
-    <t>16.568,58</t>
-  </si>
-  <si>
-    <t>2.023,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>11.219,56</t>
-  </si>
-  <si>
-    <t>432,00</t>
-  </si>
-  <si>
-    <t>349,06</t>
-  </si>
-  <si>
-    <t>4.637,90</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>3.823,75</t>
-  </si>
-  <si>
-    <t>25.932,00</t>
-  </si>
-  <si>
-    <t>72,09</t>
-  </si>
-  <si>
-    <t>829,15</t>
-  </si>
-  <si>
-    <t>4.060,00</t>
-  </si>
-  <si>
-    <t>1.103,00</t>
-  </si>
-  <si>
-    <t>20.280,95</t>
-  </si>
-  <si>
-    <t>1.884,50</t>
-  </si>
-  <si>
-    <t>6.370,65</t>
-  </si>
-  <si>
-    <t>287,00</t>
-  </si>
-  <si>
-    <t>1.342,00</t>
-  </si>
-  <si>
-    <t>1.280,00</t>
-  </si>
-  <si>
-    <t>22.806,96</t>
-  </si>
-  <si>
-    <t>887,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>7.803,30</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>4.120,00</t>
-  </si>
-  <si>
-    <t>4.730,00</t>
-  </si>
-  <si>
-    <t>11.760,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>1.323,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>2.654,00</t>
-  </si>
-  <si>
-    <t>8.517,40</t>
-  </si>
-  <si>
-    <t>36.576,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>1.885,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>4.630,25</t>
-  </si>
-  <si>
-    <t>4.722,00</t>
-  </si>
-  <si>
-    <t>387,00</t>
-  </si>
-  <si>
-    <t>5.451,45</t>
-  </si>
-  <si>
-    <t>2.758,16</t>
-  </si>
-  <si>
-    <t>179.680,00</t>
-  </si>
-  <si>
-    <t>10.969,80</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>19.800,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>9.840,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>12.840,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>1.870,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>6.141,00</t>
-  </si>
-  <si>
-    <t>13.504,00</t>
-  </si>
-  <si>
-    <t>1.343,90</t>
-  </si>
-  <si>
-    <t>1.370,05</t>
-  </si>
-  <si>
-    <t>10.341,00</t>
-  </si>
-  <si>
-    <t>5.190,00</t>
-  </si>
-  <si>
-    <t>148,86</t>
-  </si>
-  <si>
-    <t>1.406,66</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>701,78</t>
-  </si>
-  <si>
-    <t>2.724,78</t>
-  </si>
-  <si>
-    <t>606,50</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>8.593,80</t>
-  </si>
-  <si>
-    <t>5.760,00</t>
-  </si>
-  <si>
-    <t>627,00</t>
-  </si>
-  <si>
-    <t>19.370,00</t>
-  </si>
-  <si>
-    <t>232,50</t>
-  </si>
-  <si>
-    <t>482,63</t>
-  </si>
-  <si>
-    <t>1.204,39</t>
-  </si>
-  <si>
-    <t>33.500,00</t>
-  </si>
-  <si>
-    <t>1,27</t>
-  </si>
-  <si>
-    <t>1.780,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>10.976,02</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>1.517,95</t>
-  </si>
-  <si>
-    <t>564,02</t>
-  </si>
-  <si>
-    <t>5.338,40</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>763.481,89</t>
-  </si>
-  <si>
-    <t>3.279,87</t>
-  </si>
-  <si>
-    <t>117.900,00</t>
-  </si>
-  <si>
-    <t>124.660,48</t>
-  </si>
-  <si>
-    <t>179.336,00</t>
-  </si>
-  <si>
-    <t>297.093,00</t>
-  </si>
-  <si>
-    <t>47.400,00</t>
-  </si>
-  <si>
-    <t>119.780,00</t>
-  </si>
-  <si>
-    <t>117.522,00</t>
-  </si>
-  <si>
-    <t>69.573,00</t>
-  </si>
-  <si>
-    <t>244.344,00</t>
-  </si>
-  <si>
-    <t>137.948,00</t>
-  </si>
-  <si>
-    <t>268.304,00</t>
-  </si>
-  <si>
-    <t>409.500,00</t>
-  </si>
-  <si>
-    <t>254.288,57</t>
-  </si>
-  <si>
-    <t>24.291,00</t>
-  </si>
-  <si>
-    <t>425.161,00</t>
-  </si>
-  <si>
-    <t>38.900,00</t>
-  </si>
-  <si>
-    <t>2.060,00</t>
-  </si>
-  <si>
-    <t>28.300,00</t>
-  </si>
-  <si>
-    <t>156.005,20</t>
-  </si>
-  <si>
-    <t>52.800,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>6090.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>62000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>999.00</t>
+  </si>
+  <si>
+    <t>9236.00</t>
+  </si>
+  <si>
+    <t>213621.87</t>
+  </si>
+  <si>
+    <t>1716.00</t>
+  </si>
+  <si>
+    <t>171.27</t>
+  </si>
+  <si>
+    <t>329977.29</t>
+  </si>
+  <si>
+    <t>24852.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>12826.80</t>
+  </si>
+  <si>
+    <t>109371.60</t>
+  </si>
+  <si>
+    <t>15300.00</t>
+  </si>
+  <si>
+    <t>2717.93</t>
+  </si>
+  <si>
+    <t>4130.40</t>
+  </si>
+  <si>
+    <t>4128.00</t>
+  </si>
+  <si>
+    <t>2210.80</t>
+  </si>
+  <si>
+    <t>1751.00</t>
+  </si>
+  <si>
+    <t>9254.93</t>
+  </si>
+  <si>
+    <t>3900.00</t>
+  </si>
+  <si>
+    <t>4080.00</t>
+  </si>
+  <si>
+    <t>525.00</t>
+  </si>
+  <si>
+    <t>7091.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>14.55</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>36924.00</t>
+  </si>
+  <si>
+    <t>72133.18</t>
+  </si>
+  <si>
+    <t>16351.00</t>
+  </si>
+  <si>
+    <t>1614.70</t>
+  </si>
+  <si>
+    <t>7613.53</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>28662.26</t>
+  </si>
+  <si>
+    <t>16923.72</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>1598.00</t>
+  </si>
+  <si>
+    <t>2624.00</t>
+  </si>
+  <si>
+    <t>8878.00</t>
+  </si>
+  <si>
+    <t>2926.64</t>
+  </si>
+  <si>
+    <t>3934.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>37104.11</t>
+  </si>
+  <si>
+    <t>4591.75</t>
+  </si>
+  <si>
+    <t>515.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>9796.90</t>
+  </si>
+  <si>
+    <t>338.21</t>
+  </si>
+  <si>
+    <t>4200.20</t>
+  </si>
+  <si>
+    <t>10136.00</t>
+  </si>
+  <si>
+    <t>2497.74</t>
+  </si>
+  <si>
+    <t>1780.71</t>
+  </si>
+  <si>
+    <t>132704.00</t>
+  </si>
+  <si>
+    <t>56.54</t>
+  </si>
+  <si>
+    <t>6508.50</t>
+  </si>
+  <si>
+    <t>6299.00</t>
+  </si>
+  <si>
+    <t>19969.30</t>
+  </si>
+  <si>
+    <t>4443.40</t>
+  </si>
+  <si>
+    <t>4784.92</t>
+  </si>
+  <si>
+    <t>986.12</t>
+  </si>
+  <si>
+    <t>16996.80</t>
+  </si>
+  <si>
+    <t>24465.00</t>
+  </si>
+  <si>
+    <t>16800.00</t>
+  </si>
+  <si>
+    <t>361.37</t>
+  </si>
+  <si>
+    <t>1675.00</t>
+  </si>
+  <si>
+    <t>2095.00</t>
+  </si>
+  <si>
+    <t>20400.00</t>
+  </si>
+  <si>
+    <t>1446.26</t>
+  </si>
+  <si>
+    <t>1949.67</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>5195.96</t>
+  </si>
+  <si>
+    <t>1545.75</t>
+  </si>
+  <si>
+    <t>2320.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>29600.00</t>
+  </si>
+  <si>
+    <t>8490.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>3552.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>33684.48</t>
+  </si>
+  <si>
+    <t>20371.94</t>
+  </si>
+  <si>
+    <t>3010.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>784.00</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>2021.00</t>
+  </si>
+  <si>
+    <t>4013.00</t>
+  </si>
+  <si>
+    <t>47385.00</t>
+  </si>
+  <si>
+    <t>815.60</t>
+  </si>
+  <si>
+    <t>572.24</t>
+  </si>
+  <si>
+    <t>4605.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>355.74</t>
+  </si>
+  <si>
+    <t>345761.96</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>1570.00</t>
+  </si>
+  <si>
+    <t>9167.94</t>
+  </si>
+  <si>
+    <t>16568.58</t>
+  </si>
+  <si>
+    <t>2023.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>11219.56</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>349.06</t>
+  </si>
+  <si>
+    <t>4637.90</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>3823.75</t>
+  </si>
+  <si>
+    <t>25932.00</t>
+  </si>
+  <si>
+    <t>72.09</t>
+  </si>
+  <si>
+    <t>829.15</t>
+  </si>
+  <si>
+    <t>4060.00</t>
+  </si>
+  <si>
+    <t>1103.00</t>
+  </si>
+  <si>
+    <t>20280.95</t>
+  </si>
+  <si>
+    <t>1884.50</t>
+  </si>
+  <si>
+    <t>6370.65</t>
+  </si>
+  <si>
+    <t>287.00</t>
+  </si>
+  <si>
+    <t>1342.00</t>
+  </si>
+  <si>
+    <t>1280.00</t>
+  </si>
+  <si>
+    <t>22806.96</t>
+  </si>
+  <si>
+    <t>887.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>7803.30</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>4120.00</t>
+  </si>
+  <si>
+    <t>4730.00</t>
+  </si>
+  <si>
+    <t>11760.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>1323.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>2654.00</t>
+  </si>
+  <si>
+    <t>8517.40</t>
+  </si>
+  <si>
+    <t>36576.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1885.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>4630.25</t>
+  </si>
+  <si>
+    <t>4722.00</t>
+  </si>
+  <si>
+    <t>387.00</t>
+  </si>
+  <si>
+    <t>5451.45</t>
+  </si>
+  <si>
+    <t>2758.16</t>
+  </si>
+  <si>
+    <t>179680.00</t>
+  </si>
+  <si>
+    <t>10969.80</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>19800.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>9840.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>12840.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>1870.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>6141.00</t>
+  </si>
+  <si>
+    <t>13504.00</t>
+  </si>
+  <si>
+    <t>1343.90</t>
+  </si>
+  <si>
+    <t>1370.05</t>
+  </si>
+  <si>
+    <t>10341.00</t>
+  </si>
+  <si>
+    <t>5190.00</t>
+  </si>
+  <si>
+    <t>148.86</t>
+  </si>
+  <si>
+    <t>1406.66</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>701.78</t>
+  </si>
+  <si>
+    <t>2724.78</t>
+  </si>
+  <si>
+    <t>606.50</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>8593.80</t>
+  </si>
+  <si>
+    <t>5760.00</t>
+  </si>
+  <si>
+    <t>627.00</t>
+  </si>
+  <si>
+    <t>19370.00</t>
+  </si>
+  <si>
+    <t>232.50</t>
+  </si>
+  <si>
+    <t>482.63</t>
+  </si>
+  <si>
+    <t>1204.39</t>
+  </si>
+  <si>
+    <t>33500.00</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>1780.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>10976.02</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>1517.95</t>
+  </si>
+  <si>
+    <t>564.02</t>
+  </si>
+  <si>
+    <t>5338.40</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>763481.89</t>
+  </si>
+  <si>
+    <t>3279.87</t>
+  </si>
+  <si>
+    <t>117900.00</t>
+  </si>
+  <si>
+    <t>124660.48</t>
+  </si>
+  <si>
+    <t>179336.00</t>
+  </si>
+  <si>
+    <t>297093.00</t>
+  </si>
+  <si>
+    <t>47400.00</t>
+  </si>
+  <si>
+    <t>119780.00</t>
+  </si>
+  <si>
+    <t>117522.00</t>
+  </si>
+  <si>
+    <t>69573.00</t>
+  </si>
+  <si>
+    <t>244344.00</t>
+  </si>
+  <si>
+    <t>137948.00</t>
+  </si>
+  <si>
+    <t>268304.00</t>
+  </si>
+  <si>
+    <t>409500.00</t>
+  </si>
+  <si>
+    <t>254288.57</t>
+  </si>
+  <si>
+    <t>24291.00</t>
+  </si>
+  <si>
+    <t>425161.00</t>
+  </si>
+  <si>
+    <t>38900.00</t>
+  </si>
+  <si>
+    <t>2060.00</t>
+  </si>
+  <si>
+    <t>28300.00</t>
+  </si>
+  <si>
+    <t>156005.20</t>
+  </si>
+  <si>
+    <t>52800.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
   </si>
 </sst>
 </file>
